--- a/medicine/Enfance/Pro_Juventute_(timbre)/Pro_Juventute_(timbre).xlsx
+++ b/medicine/Enfance/Pro_Juventute_(timbre)/Pro_Juventute_(timbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les timbres-poste Pro Juventute sont une série annuelle suisse de timbres de bienfaisance dont la surtaxe permet de financer Pro Juventute, une association œuvrant en faveur de la jeunesse suisse.
 L'émission consiste généralement en quatre timbres sur un thème. Elle est émise en fin d'année avec depuis 1992, un timbre en rapport avec Noël. Depuis 2003, les timbres sont autocollants.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès la fondation de Pro Juventute en 1912, la poste suisse accepte de vendre en décembre au guichet[3] des vignettes (10 millions d'exemplaires proposés[3]) sans valeur postale au profit de l'association et accepte leur utilisation sur le courrier à côté des timbres-poste, et ce jusqu'au 28 février 1913[3].  Cette première émission caritative est composée de 3 vignettes identiques qui diffèrent seulement par leur couleur.  Chacune de ces 3 vignettes est émise dans une des langues officielles du pays : le français, l'allemand et l'italien. Ces vignettes sont dénommées "précurseurs" par les collectionneurs.
-La première émission officielle de timbre Pro Juventute a lieu en 1913 et représente l'allégorie Helvetia avec en fond le Cervin. Il s'agit de la seule émission postale de l'année[4] qui s'est tout de même écoulée pour plus de 3 millions d'exemplaires. À cause de la Première Guerre mondiale, 1914 est la seule année où la poste suisse n'émettra pas d'émission pour l'œuvre caritative. Néanmoins, en 1915, 1916 et 1917, les seules émissions du pays sont consacrées à la fondation[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès la fondation de Pro Juventute en 1912, la poste suisse accepte de vendre en décembre au guichet des vignettes (10 millions d'exemplaires proposés) sans valeur postale au profit de l'association et accepte leur utilisation sur le courrier à côté des timbres-poste, et ce jusqu'au 28 février 1913.  Cette première émission caritative est composée de 3 vignettes identiques qui diffèrent seulement par leur couleur.  Chacune de ces 3 vignettes est émise dans une des langues officielles du pays : le français, l'allemand et l'italien. Ces vignettes sont dénommées "précurseurs" par les collectionneurs.
+La première émission officielle de timbre Pro Juventute a lieu en 1913 et représente l'allégorie Helvetia avec en fond le Cervin. Il s'agit de la seule émission postale de l'année qui s'est tout de même écoulée pour plus de 3 millions d'exemplaires. À cause de la Première Guerre mondiale, 1914 est la seule année où la poste suisse n'émettra pas d'émission pour l'œuvre caritative. Néanmoins, en 1915, 1916 et 1917, les seules émissions du pays sont consacrées à la fondation.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste des thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1912 : vignettes, dites « Précurseurs »
 1913 : Helvetia, gravure de Jean Sprenger
@@ -629,8 +645,8 @@
 2003 : jeu et imagination, dont le déballage des cadeaux de Noël
 2004 : soif d'apprendre
 2005 : donner une chance à tous les enfants, dont le rêve de Noël
-À partir de 2006, et jusqu'en 2008, les illustrations sont sélectionnées parmi des dessins d'enfants avec l'aide de l'artiste et présentateur de télévision Ted Scapa[5] :
-2006 : dessins d'enfants[6].</t>
+À partir de 2006, et jusqu'en 2008, les illustrations sont sélectionnées parmi des dessins d'enfants avec l'aide de l'artiste et présentateur de télévision Ted Scapa :
+2006 : dessins d'enfants.</t>
         </is>
       </c>
     </row>
